--- a/Results/Descr_statistics/res_years_1.xlsx
+++ b/Results/Descr_statistics/res_years_1.xlsx
@@ -2568,10 +2568,10 @@
         <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E67" t="n">
-        <v>10.322</v>
+        <v>10.09</v>
       </c>
       <c r="F67" t="n">
         <v>2</v>
@@ -2580,13 +2580,13 @@
         <v>20</v>
       </c>
       <c r="H67" t="n">
-        <v>44.587</v>
+        <v>40.172</v>
       </c>
       <c r="I67" t="n">
-        <v>6.677</v>
+        <v>6.338</v>
       </c>
       <c r="J67" t="n">
-        <v>5.519</v>
+        <v>5.106</v>
       </c>
     </row>
     <row r="68">
